--- a/dist/document/dest/2020/10/doctors/18.xlsx
+++ b/dist/document/dest/2020/10/doctors/18.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>1390</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>30</v>
       </c>
-      <c r="C3" s="1">
-        <v>520500</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>30</v>
       </c>
-      <c r="C4" s="1">
-        <v>411450</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>571</v>
       </c>
-      <c r="C5" s="1">
-        <v>4396700</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>360</v>
       </c>
-      <c r="C6" s="1">
-        <v>1656000</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>40</v>
       </c>
-      <c r="C7" s="1">
-        <v>212000</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>25</v>
       </c>
-      <c r="C8" s="1">
-        <v>229250</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>62</v>
       </c>
-      <c r="C9" s="1">
-        <v>869550</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
-        <v>5460</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>32</v>
       </c>
-      <c r="C11" s="1">
-        <v>422400</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>60</v>
       </c>
-      <c r="C12" s="1">
-        <v>552000</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>65</v>
       </c>
-      <c r="C13" s="1">
-        <v>1150500</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>30</v>
       </c>
-      <c r="C14" s="1">
-        <v>762000</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>60</v>
       </c>
-      <c r="C15" s="1">
-        <v>246600</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>110</v>
       </c>
-      <c r="C16" s="1">
-        <v>397100</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>30</v>
       </c>
-      <c r="C17" s="1">
-        <v>197400</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>61</v>
       </c>
-      <c r="C18" s="1">
-        <v>14945</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>10</v>
       </c>
-      <c r="C19" s="1">
-        <v>48300</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>165</v>
       </c>
-      <c r="C20" s="1">
-        <v>2631750</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>75</v>
       </c>
-      <c r="C21" s="1">
-        <v>2121750</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>405</v>
       </c>
-      <c r="C22" s="1">
-        <v>571050</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>60</v>
       </c>
-      <c r="C23" s="1">
-        <v>612000</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>120</v>
       </c>
-      <c r="C24" s="1">
-        <v>668400</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>50</v>
       </c>
-      <c r="C25" s="1">
-        <v>211000</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>120</v>
       </c>
-      <c r="C26" s="1">
-        <v>1940400</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>1520</v>
       </c>
-      <c r="C27" s="1">
-        <v>23712000</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>1570</v>
       </c>
-      <c r="C28" s="1">
-        <v>22451000</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>25</v>
       </c>
-      <c r="C29" s="1">
-        <v>86250</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>20</v>
       </c>
-      <c r="C30" s="1">
-        <v>112700</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>2</v>
       </c>
-      <c r="C31" s="1">
-        <v>592000</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>80</v>
       </c>
-      <c r="C32" s="1">
-        <v>620000</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>383</v>
       </c>
-      <c r="C33" s="1">
-        <v>2114160</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>220</v>
       </c>
-      <c r="C34" s="1">
-        <v>1282600</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>40</v>
       </c>
-      <c r="C35" s="1">
-        <v>193200</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>38</v>
       </c>
-      <c r="C36" s="1">
-        <v>171380</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>140</v>
       </c>
-      <c r="C37" s="1">
-        <v>296800</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>5</v>
       </c>
-      <c r="C38" s="1">
-        <v>749000</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>10</v>
       </c>
-      <c r="C39" s="1">
-        <v>39200</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>110</v>
       </c>
-      <c r="C40" s="1">
-        <v>453200</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>15</v>
       </c>
-      <c r="C41" s="1">
-        <v>193500</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>50</v>
       </c>
-      <c r="C42" s="1">
-        <v>32750</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>200</v>
       </c>
-      <c r="C43" s="1">
-        <v>920000</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>50</v>
       </c>
-      <c r="C44" s="1">
-        <v>63750</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>30</v>
       </c>
-      <c r="C45" s="1">
-        <v>120750</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>200</v>
       </c>
-      <c r="C46" s="1">
-        <v>667000</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>62</v>
       </c>
-      <c r="C47" s="1">
-        <v>458800</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>28</v>
       </c>
-      <c r="C48" s="1">
-        <v>415800</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>75</v>
       </c>
-      <c r="C49" s="1">
-        <v>657750</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>120</v>
       </c>
-      <c r="C50" s="1">
-        <v>607200</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>20</v>
       </c>
-      <c r="C51" s="1">
-        <v>10400</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>5</v>
       </c>
-      <c r="C52" s="1">
-        <v>885</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>20</v>
       </c>
-      <c r="C53" s="1">
-        <v>119800</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>30</v>
       </c>
-      <c r="C54" s="1">
-        <v>533100</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>124</v>
       </c>
-      <c r="C55" s="1">
-        <v>242420</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>30</v>
       </c>
-      <c r="C56" s="1">
-        <v>846000</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1010,7 +845,7 @@
         <v>7808</v>
       </c>
       <c r="C57" s="1">
-        <v>79613290</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/18.xlsx
+++ b/dist/document/dest/2020/10/doctors/18.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,26 +399,35 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Amitriptyline (Elavil 25)</v>
+        <v>Aldactone (Spironolactone) 25mg</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>22700</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Aprovel (Irbesartan 300mg)</v>
+        <v>Artrodar (Diacerein)</v>
       </c>
       <c r="B3" s="1">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>205725</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Artrodar (Diacerein)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B4" s="1">
-        <v>30</v>
+        <v>375</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2887500</v>
       </c>
     </row>
     <row r="5">
@@ -426,431 +435,906 @@
         <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B5" s="1">
-        <v>571</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>231000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>BS One (Omega3 Fish Oil 1000mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B6" s="1">
-        <v>360</v>
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>231000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Betaloc Zok (Metoprolol 25mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B7" s="1">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>231000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Brexin (Piroxicam) 20mg</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B8" s="1">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>231000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B9" s="1">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="C9" s="1">
+        <v>385000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Captopril 25</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B10" s="1">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="C10" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>32</v>
+        <v>120</v>
+      </c>
+      <c r="C11" s="1">
+        <v>552000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Cozaar (Losartan 50mg)</v>
+        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
       </c>
       <c r="B12" s="1">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="C12" s="1">
+        <v>341550</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Crestor (Rosuvastatin 10mg)</v>
+        <v>Betaloc Zok (Metoprolol 25mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>53000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Crestor (Rosuvastatin 20mg)</v>
+        <v>Betaloc Zok (Metoprolol 25mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>30</v>
+        <v>105</v>
+      </c>
+      <c r="C14" s="1">
+        <v>556500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Daflon (Diosmin, hesperidin)</v>
+        <v>Betaloc Zok (Metoprolol 50mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>209700</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Diamicron MR 30mg (Gliclazide)</v>
+        <v>Brexin (Piroxicam) 20mg</v>
       </c>
       <c r="B16" s="1">
-        <v>110</v>
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>91700</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Diamicron MR 60mg (Gliclazide)</v>
+        <v>Brexin (Piroxicam) 20mg</v>
       </c>
       <c r="B17" s="1">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>137550</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Diurefar (Furosemide 40mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="1">
+        <v>216150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Europlin (Amitriptyline 25mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>429000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>165</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>429000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Feburic (Febuxostat 80mg)</v>
+        <v>Celebrex (Celecoxib 200mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>75</v>
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>130000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v xml:space="preserve">Ferrovit (Iron, folic acid, vitamin B12) </v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>405</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>66000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B23" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>108300</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Glucophage XR 1000mg (Metformin hydrochloride)</v>
+        <v>Diamicron MR 60mg (Gliclazide)</v>
       </c>
       <c r="B24" s="1">
-        <v>120</v>
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>197400</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Glucophage XR 750mg (Metformin hydrochloride)</v>
+        <v>Diurefar (Furosemide 40mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>50</v>
+        <v>106</v>
+      </c>
+      <c r="C25" s="1">
+        <v>25970</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
+        <v>Europlin (Amitriptyline 25mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>120</v>
+        <v>20</v>
+      </c>
+      <c r="C26" s="1">
+        <v>96600</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Ketosteril</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>1520</v>
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
+        <v>478500</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Ketovital</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>1570</v>
+        <v>30</v>
+      </c>
+      <c r="C28" s="1">
+        <v>478500</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Kogimin (Multivitamine &amp; Minerals)</v>
+        <v>Febuday (Febuxostat 40mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>25</v>
+        <v>150</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2392500</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Lactomin Plus (Probiotics)</v>
+        <v>Feburic (Febuxostat 80mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="C30" s="1">
+        <v>707250</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Lantus Solostar 100IU/ml</v>
+        <v xml:space="preserve">Ferrovit (Iron, folic acid, vitamin B12) </v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="C31" s="1">
+        <v>28200</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Lipanthyl (Fenofibrate) 200mg</v>
+        <v xml:space="preserve">Ferrovit (Iron, folic acid, vitamin B12) </v>
       </c>
       <c r="B32" s="1">
-        <v>80</v>
+        <v>180</v>
+      </c>
+      <c r="C32" s="1">
+        <v>253800</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>383</v>
+        <v>60</v>
+      </c>
+      <c r="C33" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+        <v>Glucophage 500mg (Metformin)</v>
       </c>
       <c r="B34" s="1">
-        <v>220</v>
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>55050</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Glucophage XR 1000mg (Metformin hydrochloride)</v>
       </c>
       <c r="B35" s="1">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="C35" s="1">
+        <v>167100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v>Glucophage XR 750mg (Metformin hydrochloride)</v>
       </c>
       <c r="B36" s="1">
-        <v>38</v>
+        <v>110</v>
+      </c>
+      <c r="C36" s="1">
+        <v>464200</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>140</v>
+        <v>60</v>
+      </c>
+      <c r="C37" s="1">
+        <v>151800</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Mixtard 30 Flexpen 100IU/ml</v>
+        <v>Harnal Ocas 0.4mg (Tamsulosin)</v>
       </c>
       <c r="B38" s="1">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="C38" s="1">
+        <v>485100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Myonal (Eperison 50mg)</v>
+        <v>Jardiance (Empagliflozin 10mg)</v>
       </c>
       <c r="B39" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C39" s="1">
+        <v>507600</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Natrilix (Indapamide 1.5mg)</v>
+        <v>Ketosteril</v>
       </c>
       <c r="B40" s="1">
-        <v>110</v>
+        <v>180</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2808000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Neurontin (Gabapentin 300mg)</v>
+        <v>Ketovital</v>
       </c>
       <c r="B41" s="1">
-        <v>15</v>
+        <v>280</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4004000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Nifedipin 20</v>
+        <v>Ketovital</v>
       </c>
       <c r="B42" s="1">
-        <v>50</v>
+        <v>120</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1716000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Ketovital</v>
       </c>
       <c r="B43" s="1">
-        <v>200</v>
+        <v>120</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1716000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Panadol Extra (Paracetamol, caffeine)</v>
+        <v>Ketovital</v>
       </c>
       <c r="B44" s="1">
-        <v>50</v>
+        <v>1820</v>
+      </c>
+      <c r="C44" s="1">
+        <v>26026000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Ketovital</v>
       </c>
       <c r="B45" s="1">
-        <v>30</v>
+        <v>120</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1716000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Lantus Solostar 100IU/ml</v>
       </c>
       <c r="B46" s="1">
-        <v>200</v>
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>592000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Plendil (Felodipine) 5mg</v>
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
       </c>
       <c r="B47" s="1">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="C47" s="1">
+        <v>34650</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Prepentin (Pregabalin 75mg)</v>
+        <v>Lorista (Losartan 50mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C48" s="1">
+        <v>165600</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Rabesime (Rabeprazole 20mg)</v>
+        <v>Lorista (Losartan 50mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>75</v>
+        <v>20</v>
+      </c>
+      <c r="C49" s="1">
+        <v>110400</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Rhaminas (Glucosamine, chondroitin)</v>
+        <v>Lorista (Losartan 50mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>120</v>
+        <v>150</v>
+      </c>
+      <c r="C50" s="1">
+        <v>828000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Stadpizide (Sulpirid 50mg)</v>
+        <v>Lorista (Losartan 50mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="C51" s="1">
+        <v>165600</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Thiazifar (Hypothiazide 25mg)</v>
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
       </c>
       <c r="B52" s="1">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="C52" s="1">
+        <v>174900</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Topamax 25  (Topiramate)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B53" s="1">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="C53" s="1">
+        <v>485100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Trajenta 5mg (Linagliptin)</v>
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
       </c>
       <c r="B54" s="1">
         <v>30</v>
+      </c>
+      <c r="C54" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Trisova (Trimetazidine 20mg)</v>
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
       </c>
       <c r="B55" s="1">
-        <v>124</v>
+        <v>10</v>
+      </c>
+      <c r="C55" s="1">
+        <v>48300</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Vesicare (Solifenacin succinate 5mg)</v>
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
       </c>
       <c r="B56" s="1">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="C56" s="1">
+        <v>96600</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
+        <v>Medrol 16mg (Methylprednisolone)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>40</v>
+      </c>
+      <c r="C57" s="1">
+        <v>180400</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Medrol 16mg (Methylprednisolone)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="1">
+        <v>252560</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Medrol 16mg (Methylprednisolone)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>20</v>
+      </c>
+      <c r="C59" s="1">
+        <v>90200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Mixtard 30 Flexpen 100IU/ml</v>
+      </c>
+      <c r="B60" s="1">
+        <v>12</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1797600</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Myonal (Eperison 50mg)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>20</v>
+      </c>
+      <c r="C61" s="1">
+        <v>78400</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Natrilix (Indapamide 1.5mg)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>20</v>
+      </c>
+      <c r="C62" s="1">
+        <v>82400</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>210</v>
+      </c>
+      <c r="C64" s="1">
+        <v>966000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>150</v>
+      </c>
+      <c r="C65" s="1">
+        <v>370500</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Panadol Extra (Paracetamol, caffeine)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>20</v>
+      </c>
+      <c r="C66" s="1">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>30</v>
+      </c>
+      <c r="C67" s="1">
+        <v>100050</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>90</v>
+      </c>
+      <c r="C68" s="1">
+        <v>300150</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>140</v>
+      </c>
+      <c r="C69" s="1">
+        <v>466900</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>10</v>
+      </c>
+      <c r="C70" s="1">
+        <v>33350</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>85</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1262250</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>40</v>
+      </c>
+      <c r="C72" s="1">
+        <v>350800</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45</v>
+      </c>
+      <c r="C73" s="1">
+        <v>394650</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>85</v>
+      </c>
+      <c r="C74" s="1">
+        <v>745450</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1">
+        <v>87700</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>20</v>
+      </c>
+      <c r="C76" s="1">
+        <v>101200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>150</v>
+      </c>
+      <c r="C77" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1">
+        <v>24150</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Trajenta 5mg (Linagliptin)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>150</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2665500</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45</v>
+      </c>
+      <c r="C81" s="1">
+        <v>204300</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>10</v>
+      </c>
+      <c r="C82" s="1">
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Vastarel MR (Trimetazindine) 35mg</v>
+      </c>
+      <c r="B83" s="1">
+        <v>210</v>
+      </c>
+      <c r="C83" s="1">
+        <v>718200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Vesicare (Solifenacin succinate 5mg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>90</v>
+      </c>
+      <c r="C84" s="1">
+        <v>2538000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Vesicare (Solifenacin succinate 5mg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>20</v>
+      </c>
+      <c r="C85" s="1">
+        <v>564000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B57" s="1">
-        <v>7808</v>
-      </c>
-      <c r="C57" s="1">
-        <v>NaN</v>
+      <c r="B86" s="1">
+        <v>6876</v>
+      </c>
+      <c r="C86" s="1">
+        <v>71447505</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C86"/>
   </ignoredErrors>
 </worksheet>
 </file>